--- a/upload/contract/contract_ext.xlsx
+++ b/upload/contract/contract_ext.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$E$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$41</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>ДОГОВІР ПРО НАДАННЯ ПОСЛУГ ПРОКАТУ ВЕЛОСИПЕДА</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Всього</t>
   </si>
   <si>
-    <t>Вартість (грн.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наймодавець не несе відповідальності за стан  здоров"я Клієнта під час катання та після нього, </t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>або виправними роботами на строк до двох років або обмеженням волі на строк до трьох років.</t>
+  </si>
+  <si>
+    <t>Вартість прокату (грн.)</t>
+  </si>
+  <si>
+    <t>Вартість велосипеду (грн.)</t>
   </si>
 </sst>
 </file>
@@ -317,23 +320,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +350,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -364,6 +371,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,74 +390,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -455,7 +406,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFEFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -737,67 +688,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875"/>
-    <col min="3" max="3" width="43.5703125"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375"/>
-    <col min="7" max="7" width="10.5703125"/>
-    <col min="8" max="10" width="0" hidden="1"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375"/>
+    <col min="8" max="8" width="10.5703125"/>
+    <col min="9" max="11" width="0" hidden="1"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -808,517 +763,554 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="9">
+        <f>SUM(F6:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="11">
-        <f>SUM(E6:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="B19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="B20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="B23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="B26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C35" s="16" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1337,12 +1329,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1362,12 +1354,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/upload/contract/contract_ext.xlsx
+++ b/upload/contract/contract_ext.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>ДОГОВІР ПРО НАДАННЯ ПОСЛУГ ПРОКАТУ ВЕЛОСИПЕДА</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Я_________________________________________________________________________</t>
   </si>
   <si>
-    <t>Адреса проживання/прописки:______________________________________________</t>
-  </si>
-  <si>
-    <t>___________________________________________________підпис:_________________</t>
-  </si>
-  <si>
     <t>дата___________час: з_________до____________________тел._____________________________________</t>
   </si>
   <si>
@@ -151,6 +145,15 @@
   </si>
   <si>
     <t>Вартість велосипеду (грн.)</t>
+  </si>
+  <si>
+    <t>За перевищення часу прокату, зазначеному в цьому договорі, сплачується 10 грн. за кожну наступну годину.</t>
+  </si>
+  <si>
+    <t>Адреса проживання/прописки:___________________________________________</t>
+  </si>
+  <si>
+    <t>_______________________________________________підпис:_________________</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -353,6 +356,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,17 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,10 +694,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,12 +729,12 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -738,12 +744,12 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -769,20 +775,20 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>42</v>
+      <c r="E5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -792,11 +798,11 @@
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -805,11 +811,11 @@
     </row>
     <row r="7" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -818,11 +824,11 @@
     </row>
     <row r="8" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -831,11 +837,11 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="19"/>
       <c r="F9" s="9">
         <f>SUM(F6:F8)</f>
@@ -864,13 +870,13 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -881,13 +887,13 @@
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -896,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -913,13 +919,13 @@
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -930,13 +936,13 @@
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -947,13 +953,13 @@
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -964,13 +970,13 @@
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -979,13 +985,13 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -996,13 +1002,13 @@
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1013,13 +1019,13 @@
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1028,13 +1034,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1043,30 +1049,30 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="B23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1075,15 +1081,15 @@
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1091,31 +1097,31 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1124,30 +1130,32 @@
     </row>
     <row r="27" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1156,13 +1164,13 @@
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="B29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1171,44 +1179,43 @@
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="12"/>
+      <c r="B30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="13"/>
+    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1216,6 +1223,15 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1229,87 +1245,95 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="14" t="s">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="13"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="17"/>
       <c r="F41" s="13"/>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/upload/contract/contract_ext.xlsx
+++ b/upload/contract/contract_ext.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -368,27 +368,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,10 +694,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,12 +729,12 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -744,12 +744,12 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -837,11 +837,11 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="19"/>
       <c r="F9" s="9">
         <f>SUM(F6:F8)</f>
@@ -870,13 +870,13 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -887,13 +887,13 @@
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -902,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -919,13 +919,13 @@
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -936,13 +936,13 @@
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -953,13 +953,13 @@
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -970,13 +970,13 @@
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -985,13 +985,13 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1002,13 +1002,13 @@
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1019,13 +1019,13 @@
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1066,13 +1066,13 @@
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1083,13 +1083,13 @@
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1100,13 +1100,13 @@
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1132,13 +1132,13 @@
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1149,13 +1149,13 @@
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1252,75 +1252,78 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="14" t="s">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="24" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="24" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="13"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B27:F27"/>
@@ -1335,6 +1338,17 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/upload/contract/contract_ext.xlsx
+++ b/upload/contract/contract_ext.xlsx
@@ -147,13 +147,13 @@
     <t>Вартість велосипеду (грн.)</t>
   </si>
   <si>
-    <t>За перевищення часу прокату, зазначеному в цьому договорі, сплачується 10 грн. за кожну наступну годину.</t>
-  </si>
-  <si>
     <t>Адреса проживання/прописки:___________________________________________</t>
   </si>
   <si>
     <t>_______________________________________________підпис:_________________</t>
+  </si>
+  <si>
+    <t>За перевищення часу прокату, зазначеному в цьому договорі, сплачується 20 грн. за кожну наступну годину.</t>
   </si>
 </sst>
 </file>
@@ -368,10 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -386,9 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,12 +729,12 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -744,12 +744,12 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -837,11 +837,11 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="19"/>
       <c r="F9" s="9">
         <f>SUM(F6:F8)</f>
@@ -870,13 +870,13 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -887,13 +887,13 @@
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -902,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -919,13 +919,13 @@
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -936,13 +936,13 @@
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -953,13 +953,13 @@
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -970,13 +970,13 @@
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -985,13 +985,13 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1002,13 +1002,13 @@
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1019,13 +1019,13 @@
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1066,13 +1066,13 @@
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="B23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1083,13 +1083,13 @@
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1100,13 +1100,13 @@
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1132,13 +1132,13 @@
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1149,13 +1149,13 @@
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1180,7 +1180,7 @@
     <row r="30" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1195,7 +1195,7 @@
     <row r="31" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1279,31 +1279,31 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C43" s="13"/>
@@ -1312,16 +1312,27 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="13"/>
       <c r="E44" s="17"/>
       <c r="F44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B12:F12"/>
@@ -1338,17 +1349,6 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/upload/contract/contract_ext.xlsx
+++ b/upload/contract/contract_ext.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>ДОГОВІР ПРО НАДАННЯ ПОСЛУГ ПРОКАТУ ВЕЛОСИПЕДА</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Велосипед видав__________________</t>
   </si>
   <si>
-    <t>Велосипед прийняв____________________</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заволодіння чужим майном або придбання права на майно шляхом обману чи зловживанням </t>
   </si>
   <si>
@@ -154,6 +151,12 @@
   </si>
   <si>
     <t>За перевищення часу прокату, зазначеному в цьому договорі, сплачується 20 грн. за кожну наступну годину.</t>
+  </si>
+  <si>
+    <t>Велосипед прийняв</t>
+  </si>
+  <si>
+    <t>в повністю справному стані_________________</t>
   </si>
 </sst>
 </file>
@@ -368,27 +371,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,12 +732,12 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -744,12 +747,12 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -785,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -837,11 +840,11 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="19"/>
       <c r="F9" s="9">
         <f>SUM(F6:F8)</f>
@@ -870,13 +873,13 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -887,13 +890,13 @@
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -902,13 +905,13 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -919,13 +922,13 @@
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -936,13 +939,13 @@
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -953,13 +956,13 @@
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -970,13 +973,13 @@
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -985,13 +988,13 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1002,13 +1005,13 @@
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1019,13 +1022,13 @@
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1034,13 +1037,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1049,13 +1052,13 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1066,13 +1069,13 @@
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="B23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1083,13 +1086,13 @@
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1100,13 +1103,13 @@
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1115,13 +1118,13 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1132,13 +1135,13 @@
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1149,13 +1152,13 @@
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1164,13 +1167,13 @@
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1180,7 +1183,7 @@
     <row r="30" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1195,7 +1198,7 @@
     <row r="31" spans="1:11" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1209,13 +1212,13 @@
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1228,7 +1231,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="13"/>
@@ -1239,6 +1242,9 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1279,31 +1285,31 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="B42" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C43" s="13"/>
@@ -1312,27 +1318,16 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="24"/>
+      <c r="B44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="25"/>
       <c r="D44" s="13"/>
       <c r="E44" s="17"/>
       <c r="F44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B12:F12"/>
@@ -1349,6 +1344,17 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
